--- a/해커톤/최종규격/공대생변승주_최종규격.xlsx
+++ b/해커톤/최종규격/공대생변승주_최종규격.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wlska\Documents\Coala_study\해커톤\새 폴더\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GS43VR\Documents\Coala_study\해커톤\최종규격\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADEC8F7-8AB4-4C25-8A9C-4F7CAE313A28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57EB8CA1-D6BD-4223-BC01-3E43B248E1A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="86">
   <si>
     <t>썸네일</t>
   </si>
@@ -46,276 +46,6 @@
     <t>영상길이</t>
   </si>
   <si>
-    <t>하루종일 형 집 앞에서 몰래 배달음식 빼먹기 ㅋㅋㅋㅋ 배달원이 음식을 빼먹고 배달해주면 반응이 어떨까?</t>
-  </si>
-  <si>
-    <t>24시간 굶고 쓰러지기 직전에 곤약젤리 1000개 먹방 ㅋㅋㅋㅋㅋㅋㅋ 드루와</t>
-  </si>
-  <si>
-    <t>30만원짜리 세상에서 제일 특이한 컴퓨터 직접 써봄 ㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>여자친구 앞에서 설거지하다가 갑자기 수세미 먹방 ㅋㅋㅋㅋㅋㅋ 과연 하또속?</t>
-  </si>
-  <si>
-    <t>고깃집 1인분 정확하게 딱 170g이 나올까?</t>
-  </si>
-  <si>
-    <t>남자친구 차에서 낯선 여자의 물건이 나오면 반응이 어떨까? ㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>하루종일 산타로 살기 vs 루돌프로 살기 ㅋㅋㅋㅋㅋㅋ 누가 더 힘들까? (feat. 더블비, 재넌, 데이브, 보따, 파뿌리, 김재원, 차진혁, 짱재영)</t>
-  </si>
-  <si>
-    <t>원칩 챌린지하는 친구 옆에서 아이스크림 먹방 ㅋㅋㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>하루종일 느끼하게 vs 화끈하게 살기 ㅋㅋㅋㅋㅋ 뭐가 더 힘들까?</t>
-  </si>
-  <si>
-    <t>17금) 여자친구가 자꾸 저를 유혹합니다..</t>
-  </si>
-  <si>
-    <t>24시간 굶고 쓰러지기 직전에 초거대 해물찜 만들어먹기 ㅋㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>술먹고 만취한 여자친구 2탄 ㅋㅋㅋㅋ 흑역사 박제함</t>
-  </si>
-  <si>
-    <t>50만원짜리 초거대 랍스터 먹방ㅋㅋㅋㅋ 절대 따라하지 마세요..</t>
-  </si>
-  <si>
-    <t>다 먹으면 한달간 공짜라는 핵폭탄 떡볶이 불세트 도전하고 왔습니다 ㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>하루종일 긍정적으로 살기 vs 부정적으로 살기 ㅋㅋㅋㅋ 뭐가 더 힘들까? 갑자기 시작된 전쟁..</t>
-  </si>
-  <si>
-    <t>종이비행기를 엄청 크게 만들면 더 멀리 날라갈까?</t>
-  </si>
-  <si>
-    <t>여자친구집 냉장고 몰래 다털어먹기 ㅋㅋㅋㅋㅋ 혼자사는 집에 메뉴 실화냐?</t>
-  </si>
-  <si>
-    <t>24시간 굶고 쓰러지기 직전에 대왕 불닭볶음면에 킬바사 소시지 만들어 먹기 ㅋㅋㅋㅋ [ 맛도리 가디언즈 ]</t>
-  </si>
-  <si>
-    <t>30만원짜리 투명마우스를 직접 써봤습니다 ㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>400만원짜리 노트북 vs 4만원짜리 노트북 뭐가 더 좋을까? ㅋㅋㅋ 이긴 사람이 가져간다! [ 숙제를 부탁해 : 젠북 프로 듀오 UX 581 ]</t>
-  </si>
-  <si>
-    <t>하루종일 돈벌기 vs 돈쓰기 ㅋㅋㅋㅋ 뭐가 더 좋을까?!</t>
-  </si>
-  <si>
-    <t>여자친구 생일에 10억짜리 요트 통째로 빌려서 데이트 ㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>가위 vs 바위 vs 보 뭐가 제일 유리할까?</t>
-  </si>
-  <si>
-    <t>하루종일 귀신으로 살기 vs 하루종일 인간(조커)로 살기 ㅋㅋㅋㅋㅋ 누가 더 재밌을까?</t>
-  </si>
-  <si>
-    <t>24시간 굶고 쓰러지기 직전에 초대형 몰티져스 였던것 먹방 ㅋㅋㅋㅋㅋㅋㅋ [맛도리 가디언즈]</t>
-  </si>
-  <si>
-    <t>돈 주고 들어가서 비 맞는 'pc방'도 아닌 '비방'이 있다길래 직접 가봤습니다 ㅋㅋㅋㅋ [비방 데이트]</t>
-  </si>
-  <si>
-    <t>여친이랑 헤어진 친구 앞에서 하루종일 이별노래 부르기 ㅋㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>가짜 삼겹살 vs 진짜 삼겹살 ㅋㅋㅋㅋ 뭐가 더 맛있을까? 게임에서 이긴 사람이 고르기</t>
-  </si>
-  <si>
-    <t>여자친구 생일날 200만원치 어피치로 묻어버리면 반응이 어떨까? ㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>24시간 굶고 쓰러지기 직전에 치즈폭탄밥 만들어먹기 ㅋㅋㅋㅋ [ 맛도리 가디언즈 ]</t>
-  </si>
-  <si>
-    <t>핫스팟 하나에 스마트폰 몇대까지 연결될까? 100대까지 연결해봄 ㅋㅋㅋㅋ [ 하찮은 실험실 feat.LG유플러스]</t>
-  </si>
-  <si>
-    <t>24시간 굶고 쓰러지기 직전에 뿌링핫도그 먹방 ㅋㅋㅋㅋ [맛도리 가디언즈]</t>
-  </si>
-  <si>
-    <t>도대체 인싸들은 이런 데이트를 왜 하는것일까?! ㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>50만원짜리 캐비어 vs 5000원짜리 날치알 ㅋㅋㅋ 뭐가 더 맛있을까? [빈부격차 레스토랑]</t>
-  </si>
-  <si>
-    <t>맨날 음식 뺏어먹는 친구 매운치킨으로 참교육하기 ㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>10L 초거대 흑당 버블티 만들어서 하루종일 다 마시기 ㅋㅋㅋㅋ [ 대만 with 트리플 ]</t>
-  </si>
-  <si>
-    <t>종이배를 엄청 크게 만들면 사람도 탈 수 있을까?</t>
-  </si>
-  <si>
-    <t>운동 극혐하는 여자친구 몰래 등산 데려왔더니 반응이 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>24시간 굶고 쓰러지기 직전에 대왕짜파게티 만들어먹기 ㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>다이어트 하는 여자친구 옛날통닭으로 괴롭히기 ㅋㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>합성착향료는 무슨맛일까?</t>
-  </si>
-  <si>
-    <t>50만원짜리 송이버섯 vs 5000원짜리 버섯 뭐가 더 맛있을까? ㅋㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>하루종일 직접만들기 vs 사서쓰기 2탄 ㅋㅋㅋㅋㅋ 노래까지 직접 만들어서 듣는다고?</t>
-  </si>
-  <si>
-    <t>하루종일 직접만들기 vs 사먹기 ㅋㅋㅋㅋㅋ 어떤게 더 좋을까?</t>
-  </si>
-  <si>
-    <t>여자친구 앞에서 갑자기 액체괴물 먹고 반응보기 ㅋㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>다이어트 하는 여자친구 1kg 치즈피자로 방해하기 ㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>하루종일 바쁘게살기 vs 아무것도안하기 뭐가 더 힘들까? ㅋㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>세상에서 제일 특이한 볼펜 TOP10 모아봄 ㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>수박스테이크 vs 개꿀맛 스테이크 ㅋㅋㅋㅋ 복불복 먹방 [ 빈부격차 레스토랑 ]</t>
-  </si>
-  <si>
-    <t>라면 면발은 몇가닥일까? ㅋㅋㅋㅋ 알고 먹으면 더 맛있음</t>
-  </si>
-  <si>
-    <t>하루종일 영어만쓰기 vs 한국어만쓰기 ㅋㅋㅋㅋㅋㅋ 어떻게 될까?</t>
-  </si>
-  <si>
-    <t>솥뚜껑에 삼겹살 구워서 고문먹방 ㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>양념치킨 vs 딸기잼치킨 복불복 먹방 ㅋㅋㅋㅋ 뭐가 더 맛있을까?</t>
-  </si>
-  <si>
-    <t>0.1배속으로 보면 신기한 영상 ㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>300만원짜리 구찌가방 받기 vs 3만원으로 데이트하기 여친의 선택은? ㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>삼겹살을 구워서 나온 기름으로 음식을 튀길 수 있을까?</t>
-  </si>
-  <si>
-    <t>24시간 굶고 쓰러지기 직전에 엽떡 만들어먹기 ㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>미니어쳐 햄버거 vs 개꿀맛 햄버거 복불복 먹방 ㅋㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>하루종일 환자로살기 vs 간호사로 살기 ㅋㅋㅋㅋㅋ 뭐가 더 힘들까 ㅠㅠ</t>
-  </si>
-  <si>
-    <t>40만원짜리 커터칼 vs 4000원짜리 커터칼 뭐가 다를까? ㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>하루종일 차갑게 Vs 뜨겁게 2탄 ㅋㅋㅋ 공피디 결국 군대 갑니다 ㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>베어그릴스 빙의해서 지네, 매미 ,전갈 ,거미 먹어봄 ㅋㅋㅋㅋ 무슨 맛일까?</t>
-  </si>
-  <si>
-    <t>3년차 커플이 침대로가면 생기는 일 ㅋㅋㅋㅋㅋ [ 01커플 부산 데이트 ]</t>
-  </si>
-  <si>
-    <t>하루종일 차갑게 살기 vs 뜨겁게 살기 ㅋㅋㅋㅋ 누가 더 즐거울까요? ㅋㅋㅋㅋ [ 1탄 ]</t>
-  </si>
-  <si>
-    <t>참깨라면 계란블럭으로 계란찜 가능할까? ㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>야생 원숭이 소굴에 쳐들어가서 맞짱뜨고 왔습니다 ㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>17금) 분명 맛집이라고 해서 찾아갔는데...</t>
-  </si>
-  <si>
-    <t>악어 한마리를 통째로 먹어봤습니다 ㅋㅋㅋㅋㅋ feat. 먹고 남은 머리로 겁많은 친구 놀리기</t>
-  </si>
-  <si>
-    <t>새로운 직원 구합니다!</t>
-  </si>
-  <si>
-    <t>모기향으로 모기 고문하기 ㅋㅋㅋ 모기향은 진짜 효과가 있을까?</t>
-  </si>
-  <si>
-    <t>일본 불매운동이 오타쿠 여자친구에게 미치는 영향 ㅋㅋㅋㅋ [ 01커플 만화카페 데이트 ]</t>
-  </si>
-  <si>
-    <t>300만 유튜버는 어떤 집에 살까? ㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>하루종일 할머니로 살기 vs 할아버지로 살기 [2탄] - 노인정가서 짜장면 한그릇? ㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>하루종일 '할머니로 살기👵🏻 vs 할아버지로 살기🧓🏻' 뭐가 더 좋을까? [1탄] ㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>찜질방 전메뉴 고문먹방 ㅋㅋㅋㅋ feat. 찜질방 태어나서 처음 가보는 외국친구</t>
-  </si>
-  <si>
-    <t>바퀴벌레 때문에 이사간 여자친구네 집들이 ㅋㅋㅋㅋㅋㅋ [01커플]</t>
-  </si>
-  <si>
-    <t>거꾸로 보면 신기한 영상 3탄 ㅋㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>외국친구랑 '거꾸로 틀어주는 아이돌 노래' 맞히기 대결 ㅋㅋㅋㅋㅋ 2탄</t>
-  </si>
-  <si>
-    <t>직접 만든 음식을 배달음식인척 속이고 먹여봤더니 ㅋㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>짝퉁 공대생 사칭을 만났습니다.. 근데 구독자 300만 실화냐??...</t>
-  </si>
-  <si>
-    <t>간장게장 vs 콜라게장 복불복 먹방 ㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>하루종일 연예인으로 살기 vs 매니저로 살기 ㅋㅋㅋㅋㅋㅋ [ 극한직업 공피디 ]</t>
-  </si>
-  <si>
-    <t>샴푸 한번 짜는데 얼마?</t>
-  </si>
-  <si>
-    <t>콜라로 할 수 있는 기발한 장난 10가지 ㅋㅋㅋㅋ 초간단!</t>
-  </si>
-  <si>
-    <t>하루종일 '네발로 살기' vs '한발로 살기' ㅋㅋㅋㅋ 뭐가 더 불편할까?</t>
-  </si>
-  <si>
-    <t>17금) 상처만 남은 지파이 30개 먹방 ㅋㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>찍어먹기 vs 부어먹기</t>
-  </si>
-  <si>
-    <t>치킨집에서 콜라만 시켜도 배달해줄까?</t>
-  </si>
-  <si>
-    <t>치킨 신랄하게 맛있게 먹는 10가지 방법 ㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>쪽갈비 100개 고문먹방 ㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
     <t>11:23</t>
   </si>
   <si>
@@ -542,6 +272,14 @@
   </si>
   <si>
     <t>10:13</t>
+  </si>
+  <si>
+    <t>구독자수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -580,7 +318,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -603,13 +341,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -950,15 +702,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H91"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -983,16 +735,19 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>3.5</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>85</v>
       </c>
       <c r="D2">
         <v>601001</v>
@@ -1007,18 +762,21 @@
         <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="I2">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3.5</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>85</v>
       </c>
       <c r="D3">
         <v>591698</v>
@@ -1033,18 +791,21 @@
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="I3">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2.5</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>85</v>
       </c>
       <c r="D4">
         <v>962096</v>
@@ -1059,18 +820,21 @@
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2.5</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>85</v>
       </c>
       <c r="D5">
         <v>664930</v>
@@ -1085,18 +849,21 @@
         <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="I5">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>85</v>
       </c>
       <c r="D6">
         <v>301305</v>
@@ -1111,18 +878,21 @@
         <v>2</v>
       </c>
       <c r="H6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I6">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2.5</v>
       </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
       </c>
       <c r="D7">
         <v>714452</v>
@@ -1137,18 +907,21 @@
         <v>2</v>
       </c>
       <c r="H7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="I7">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3.5</v>
       </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8">
-        <v>4</v>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>85</v>
       </c>
       <c r="D8">
         <v>470640</v>
@@ -1163,18 +936,21 @@
         <v>2</v>
       </c>
       <c r="H8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="I8">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3.5</v>
       </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>85</v>
       </c>
       <c r="D9">
         <v>997187</v>
@@ -1189,18 +965,21 @@
         <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="I9">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3.5</v>
       </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10">
-        <v>4</v>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>85</v>
       </c>
       <c r="D10">
         <v>726502</v>
@@ -1215,18 +994,21 @@
         <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="I10">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1.5</v>
       </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11">
-        <v>4</v>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>85</v>
       </c>
       <c r="D11">
         <v>636548</v>
@@ -1241,18 +1023,21 @@
         <v>2</v>
       </c>
       <c r="H11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="I11">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3.5</v>
       </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12">
-        <v>4</v>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>85</v>
       </c>
       <c r="D12">
         <v>634831</v>
@@ -1267,18 +1052,21 @@
         <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="I12">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2.5</v>
       </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13">
-        <v>4</v>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>85</v>
       </c>
       <c r="D13">
         <v>1246802</v>
@@ -1293,18 +1081,21 @@
         <v>2</v>
       </c>
       <c r="H13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="I13">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2.5</v>
       </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14">
-        <v>4</v>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>85</v>
       </c>
       <c r="D14">
         <v>959260</v>
@@ -1319,18 +1110,21 @@
         <v>2</v>
       </c>
       <c r="H14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I14">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2.5</v>
       </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15">
-        <v>4</v>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>85</v>
       </c>
       <c r="D15">
         <v>556346</v>
@@ -1345,18 +1139,21 @@
         <v>2</v>
       </c>
       <c r="H15" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="I15">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3.5</v>
       </c>
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16">
-        <v>4</v>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>85</v>
       </c>
       <c r="D16">
         <v>582378</v>
@@ -1371,18 +1168,21 @@
         <v>2</v>
       </c>
       <c r="H16" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="I16">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2</v>
       </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17">
-        <v>4</v>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>85</v>
       </c>
       <c r="D17">
         <v>275474</v>
@@ -1397,18 +1197,21 @@
         <v>2</v>
       </c>
       <c r="H17" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="I17">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2.5</v>
       </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18">
-        <v>4</v>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>85</v>
       </c>
       <c r="D18">
         <v>525298</v>
@@ -1423,18 +1226,21 @@
         <v>2</v>
       </c>
       <c r="H18" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="I18">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>3.5</v>
       </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19">
-        <v>4</v>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>85</v>
       </c>
       <c r="D19">
         <v>1156747</v>
@@ -1449,18 +1255,21 @@
         <v>2</v>
       </c>
       <c r="H19" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="I19">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2.5</v>
       </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20">
-        <v>4</v>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>85</v>
       </c>
       <c r="D20">
         <v>1631695</v>
@@ -1475,18 +1284,21 @@
         <v>2</v>
       </c>
       <c r="H20" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="I20">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>3.5</v>
       </c>
-      <c r="B21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21">
-        <v>4</v>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>85</v>
       </c>
       <c r="D21">
         <v>529756</v>
@@ -1501,18 +1313,21 @@
         <v>2</v>
       </c>
       <c r="H21" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="I21">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>3.5</v>
       </c>
-      <c r="B22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22">
-        <v>4</v>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>85</v>
       </c>
       <c r="D22">
         <v>790402</v>
@@ -1527,18 +1342,21 @@
         <v>2</v>
       </c>
       <c r="H22" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="I22">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>3.5</v>
       </c>
-      <c r="B23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23">
-        <v>4</v>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>85</v>
       </c>
       <c r="D23">
         <v>242697</v>
@@ -1553,18 +1371,21 @@
         <v>2</v>
       </c>
       <c r="H23" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="I23">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>3.5</v>
       </c>
-      <c r="B24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24">
-        <v>4</v>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>85</v>
       </c>
       <c r="D24">
         <v>232583</v>
@@ -1579,18 +1400,21 @@
         <v>2</v>
       </c>
       <c r="H24" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="I24">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>3.5</v>
       </c>
-      <c r="B25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25">
-        <v>4</v>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>85</v>
       </c>
       <c r="D25">
         <v>385323</v>
@@ -1605,18 +1429,21 @@
         <v>2</v>
       </c>
       <c r="H25" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="I25">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>3.5</v>
       </c>
-      <c r="B26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26">
-        <v>4</v>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>85</v>
       </c>
       <c r="D26">
         <v>887656</v>
@@ -1631,18 +1458,21 @@
         <v>2</v>
       </c>
       <c r="H26" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="I26">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2.5</v>
       </c>
-      <c r="B27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27">
-        <v>4</v>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>85</v>
       </c>
       <c r="D27">
         <v>349471</v>
@@ -1657,18 +1487,21 @@
         <v>2</v>
       </c>
       <c r="H27" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="I27">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>3.5</v>
       </c>
-      <c r="B28" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28">
-        <v>4</v>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>85</v>
       </c>
       <c r="D28">
         <v>986040</v>
@@ -1683,18 +1516,21 @@
         <v>2</v>
       </c>
       <c r="H28" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="I28">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>3.5</v>
       </c>
-      <c r="B29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29">
-        <v>4</v>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>85</v>
       </c>
       <c r="D29">
         <v>839160</v>
@@ -1709,18 +1545,21 @@
         <v>2</v>
       </c>
       <c r="H29" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="I29">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1.5</v>
       </c>
-      <c r="B30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30">
-        <v>4</v>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>85</v>
       </c>
       <c r="D30">
         <v>1227434</v>
@@ -1735,18 +1574,21 @@
         <v>2</v>
       </c>
       <c r="H30" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="I30">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>3.5</v>
       </c>
-      <c r="B31" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31">
-        <v>4</v>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>85</v>
       </c>
       <c r="D31">
         <v>758976</v>
@@ -1761,18 +1603,21 @@
         <v>2</v>
       </c>
       <c r="H31" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="I31">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2.5</v>
       </c>
-      <c r="B32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32">
-        <v>4</v>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>85</v>
       </c>
       <c r="D32">
         <v>313484</v>
@@ -1787,18 +1632,21 @@
         <v>2</v>
       </c>
       <c r="H32" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="I32">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>3.5</v>
       </c>
-      <c r="B33" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33">
-        <v>4</v>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>85</v>
       </c>
       <c r="D33">
         <v>1033786</v>
@@ -1813,18 +1661,21 @@
         <v>2</v>
       </c>
       <c r="H33" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="I33">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>3.5</v>
       </c>
-      <c r="B34" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34">
-        <v>4</v>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>85</v>
       </c>
       <c r="D34">
         <v>320081</v>
@@ -1839,18 +1690,21 @@
         <v>2</v>
       </c>
       <c r="H34" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="I34">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>3.5</v>
       </c>
-      <c r="B35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35">
-        <v>4</v>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>85</v>
       </c>
       <c r="D35">
         <v>644574</v>
@@ -1865,18 +1719,21 @@
         <v>2</v>
       </c>
       <c r="H35" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I35">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2.5</v>
       </c>
-      <c r="B36" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36">
-        <v>4</v>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>85</v>
       </c>
       <c r="D36">
         <v>1092690</v>
@@ -1891,18 +1748,21 @@
         <v>2</v>
       </c>
       <c r="H36" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="I36">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2.5</v>
       </c>
-      <c r="B37" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37">
-        <v>4</v>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37" t="s">
+        <v>85</v>
       </c>
       <c r="D37">
         <v>975232</v>
@@ -1917,18 +1777,21 @@
         <v>2</v>
       </c>
       <c r="H37" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="I37">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2.5</v>
       </c>
-      <c r="B38" t="s">
-        <v>44</v>
-      </c>
-      <c r="C38">
-        <v>4</v>
+      <c r="B38">
+        <v>4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>85</v>
       </c>
       <c r="D38">
         <v>290843</v>
@@ -1943,18 +1806,21 @@
         <v>2</v>
       </c>
       <c r="H38" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="I38">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>3.5</v>
       </c>
-      <c r="B39" t="s">
-        <v>45</v>
-      </c>
-      <c r="C39">
-        <v>4</v>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39" t="s">
+        <v>85</v>
       </c>
       <c r="D39">
         <v>206529</v>
@@ -1969,18 +1835,21 @@
         <v>2</v>
       </c>
       <c r="H39" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="I39">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>3.5</v>
       </c>
-      <c r="B40" t="s">
-        <v>46</v>
-      </c>
-      <c r="C40">
-        <v>4</v>
+      <c r="B40">
+        <v>4</v>
+      </c>
+      <c r="C40" t="s">
+        <v>85</v>
       </c>
       <c r="D40">
         <v>1192470</v>
@@ -1995,18 +1864,21 @@
         <v>2</v>
       </c>
       <c r="H40" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="I40">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2.5</v>
       </c>
-      <c r="B41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C41">
-        <v>4</v>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41" t="s">
+        <v>85</v>
       </c>
       <c r="D41">
         <v>427612</v>
@@ -2021,18 +1893,21 @@
         <v>2</v>
       </c>
       <c r="H41" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="I41">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2.5</v>
       </c>
-      <c r="B42" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42">
-        <v>4</v>
+      <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="C42" t="s">
+        <v>85</v>
       </c>
       <c r="D42">
         <v>425641</v>
@@ -2047,18 +1922,21 @@
         <v>2</v>
       </c>
       <c r="H42" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="I42">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>3.5</v>
       </c>
-      <c r="B43" t="s">
-        <v>49</v>
-      </c>
-      <c r="C43">
-        <v>4</v>
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43" t="s">
+        <v>85</v>
       </c>
       <c r="D43">
         <v>798512</v>
@@ -2073,18 +1951,21 @@
         <v>2</v>
       </c>
       <c r="H43" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="I43">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>3.5</v>
       </c>
-      <c r="B44" t="s">
-        <v>50</v>
-      </c>
-      <c r="C44">
-        <v>4</v>
+      <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="C44" t="s">
+        <v>85</v>
       </c>
       <c r="D44">
         <v>628930</v>
@@ -2099,18 +1980,21 @@
         <v>2</v>
       </c>
       <c r="H44" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="I44">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>3.5</v>
       </c>
-      <c r="B45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C45">
-        <v>4</v>
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45" t="s">
+        <v>85</v>
       </c>
       <c r="D45">
         <v>689015</v>
@@ -2125,18 +2009,21 @@
         <v>2</v>
       </c>
       <c r="H45" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="I45">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>3.5</v>
       </c>
-      <c r="B46" t="s">
-        <v>52</v>
-      </c>
-      <c r="C46">
-        <v>4</v>
+      <c r="B46">
+        <v>4</v>
+      </c>
+      <c r="C46" t="s">
+        <v>85</v>
       </c>
       <c r="D46">
         <v>1637264</v>
@@ -2151,18 +2038,21 @@
         <v>2</v>
       </c>
       <c r="H46" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="I46">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>3.5</v>
       </c>
-      <c r="B47" t="s">
-        <v>53</v>
-      </c>
-      <c r="C47">
-        <v>4</v>
+      <c r="B47">
+        <v>4</v>
+      </c>
+      <c r="C47" t="s">
+        <v>85</v>
       </c>
       <c r="D47">
         <v>815515</v>
@@ -2177,18 +2067,21 @@
         <v>2</v>
       </c>
       <c r="H47" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="I47">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>3.5</v>
       </c>
-      <c r="B48" t="s">
-        <v>54</v>
-      </c>
-      <c r="C48">
-        <v>4</v>
+      <c r="B48">
+        <v>4</v>
+      </c>
+      <c r="C48" t="s">
+        <v>85</v>
       </c>
       <c r="D48">
         <v>666224</v>
@@ -2203,18 +2096,21 @@
         <v>2</v>
       </c>
       <c r="H48" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="I48">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1.5</v>
       </c>
-      <c r="B49" t="s">
-        <v>55</v>
-      </c>
-      <c r="C49">
-        <v>4</v>
+      <c r="B49">
+        <v>4</v>
+      </c>
+      <c r="C49" t="s">
+        <v>85</v>
       </c>
       <c r="D49">
         <v>1435044</v>
@@ -2229,18 +2125,21 @@
         <v>2</v>
       </c>
       <c r="H49" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="I49">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>3.5</v>
       </c>
-      <c r="B50" t="s">
-        <v>56</v>
-      </c>
-      <c r="C50">
-        <v>4</v>
+      <c r="B50">
+        <v>4</v>
+      </c>
+      <c r="C50" t="s">
+        <v>85</v>
       </c>
       <c r="D50">
         <v>680624</v>
@@ -2255,18 +2154,21 @@
         <v>2</v>
       </c>
       <c r="H50" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="I50">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1.5</v>
       </c>
-      <c r="B51" t="s">
-        <v>57</v>
-      </c>
-      <c r="C51">
-        <v>4</v>
+      <c r="B51">
+        <v>4</v>
+      </c>
+      <c r="C51" t="s">
+        <v>85</v>
       </c>
       <c r="D51">
         <v>420929</v>
@@ -2281,18 +2183,21 @@
         <v>2</v>
       </c>
       <c r="H51" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="I51">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>3.5</v>
       </c>
-      <c r="B52" t="s">
-        <v>58</v>
-      </c>
-      <c r="C52">
-        <v>4</v>
+      <c r="B52">
+        <v>4</v>
+      </c>
+      <c r="C52" t="s">
+        <v>85</v>
       </c>
       <c r="D52">
         <v>1826671</v>
@@ -2307,18 +2212,21 @@
         <v>2</v>
       </c>
       <c r="H52" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="I52">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1</v>
       </c>
-      <c r="B53" t="s">
-        <v>59</v>
-      </c>
-      <c r="C53">
-        <v>4</v>
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="C53" t="s">
+        <v>85</v>
       </c>
       <c r="D53">
         <v>721694</v>
@@ -2333,18 +2241,21 @@
         <v>2</v>
       </c>
       <c r="H53" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="I53">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>3.5</v>
       </c>
-      <c r="B54" t="s">
-        <v>60</v>
-      </c>
-      <c r="C54">
-        <v>4</v>
+      <c r="B54">
+        <v>4</v>
+      </c>
+      <c r="C54" t="s">
+        <v>85</v>
       </c>
       <c r="D54">
         <v>456164</v>
@@ -2359,18 +2270,21 @@
         <v>2</v>
       </c>
       <c r="H54" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="I54">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1.5</v>
       </c>
-      <c r="B55" t="s">
-        <v>61</v>
-      </c>
-      <c r="C55">
-        <v>4</v>
+      <c r="B55">
+        <v>4</v>
+      </c>
+      <c r="C55" t="s">
+        <v>85</v>
       </c>
       <c r="D55">
         <v>395868</v>
@@ -2385,18 +2299,21 @@
         <v>2</v>
       </c>
       <c r="H55" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="I55">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>2.5</v>
       </c>
-      <c r="B56" t="s">
-        <v>62</v>
-      </c>
-      <c r="C56">
-        <v>4</v>
+      <c r="B56">
+        <v>4</v>
+      </c>
+      <c r="C56" t="s">
+        <v>85</v>
       </c>
       <c r="D56">
         <v>476540</v>
@@ -2411,18 +2328,21 @@
         <v>2</v>
       </c>
       <c r="H56" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="I56">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1.5</v>
       </c>
-      <c r="B57" t="s">
-        <v>63</v>
-      </c>
-      <c r="C57">
-        <v>4</v>
+      <c r="B57">
+        <v>4</v>
+      </c>
+      <c r="C57" t="s">
+        <v>85</v>
       </c>
       <c r="D57">
         <v>583690</v>
@@ -2437,18 +2357,21 @@
         <v>2</v>
       </c>
       <c r="H57" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="I57">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>3.5</v>
       </c>
-      <c r="B58" t="s">
-        <v>64</v>
-      </c>
-      <c r="C58">
-        <v>4</v>
+      <c r="B58">
+        <v>4</v>
+      </c>
+      <c r="C58" t="s">
+        <v>85</v>
       </c>
       <c r="D58">
         <v>801736</v>
@@ -2463,18 +2386,21 @@
         <v>2</v>
       </c>
       <c r="H58" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="I58">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>2.5</v>
       </c>
-      <c r="B59" t="s">
-        <v>65</v>
-      </c>
-      <c r="C59">
-        <v>4</v>
+      <c r="B59">
+        <v>4</v>
+      </c>
+      <c r="C59" t="s">
+        <v>85</v>
       </c>
       <c r="D59">
         <v>486356</v>
@@ -2489,18 +2415,21 @@
         <v>2</v>
       </c>
       <c r="H59" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="I59">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>2.5</v>
       </c>
-      <c r="B60" t="s">
-        <v>66</v>
-      </c>
-      <c r="C60">
-        <v>4</v>
+      <c r="B60">
+        <v>4</v>
+      </c>
+      <c r="C60" t="s">
+        <v>85</v>
       </c>
       <c r="D60">
         <v>631579</v>
@@ -2515,18 +2444,21 @@
         <v>2</v>
       </c>
       <c r="H60" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="I60">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>2.5</v>
       </c>
-      <c r="B61" t="s">
-        <v>67</v>
-      </c>
-      <c r="C61">
-        <v>4</v>
+      <c r="B61">
+        <v>4</v>
+      </c>
+      <c r="C61" t="s">
+        <v>85</v>
       </c>
       <c r="D61">
         <v>1314060</v>
@@ -2541,18 +2473,21 @@
         <v>2</v>
       </c>
       <c r="H61" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="I61">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>3.5</v>
       </c>
-      <c r="B62" t="s">
-        <v>68</v>
-      </c>
-      <c r="C62">
-        <v>4</v>
+      <c r="B62">
+        <v>4</v>
+      </c>
+      <c r="C62" t="s">
+        <v>85</v>
       </c>
       <c r="D62">
         <v>892788</v>
@@ -2567,18 +2502,21 @@
         <v>2</v>
       </c>
       <c r="H62" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="I62">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>3.5</v>
       </c>
-      <c r="B63" t="s">
-        <v>69</v>
-      </c>
-      <c r="C63">
-        <v>4</v>
+      <c r="B63">
+        <v>4</v>
+      </c>
+      <c r="C63" t="s">
+        <v>85</v>
       </c>
       <c r="D63">
         <v>606126</v>
@@ -2593,18 +2531,21 @@
         <v>2</v>
       </c>
       <c r="H63" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="I63">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>3.5</v>
       </c>
-      <c r="B64" t="s">
-        <v>70</v>
-      </c>
-      <c r="C64">
-        <v>4</v>
+      <c r="B64">
+        <v>4</v>
+      </c>
+      <c r="C64" t="s">
+        <v>85</v>
       </c>
       <c r="D64">
         <v>325440</v>
@@ -2619,18 +2560,21 @@
         <v>2</v>
       </c>
       <c r="H64" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="I64">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>3.5</v>
       </c>
-      <c r="B65" t="s">
-        <v>71</v>
-      </c>
-      <c r="C65">
-        <v>4</v>
+      <c r="B65">
+        <v>4</v>
+      </c>
+      <c r="C65" t="s">
+        <v>85</v>
       </c>
       <c r="D65">
         <v>1294361</v>
@@ -2645,18 +2589,21 @@
         <v>2</v>
       </c>
       <c r="H65" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="I65">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>2.5</v>
       </c>
-      <c r="B66" t="s">
-        <v>72</v>
-      </c>
-      <c r="C66">
-        <v>4</v>
+      <c r="B66">
+        <v>4</v>
+      </c>
+      <c r="C66" t="s">
+        <v>85</v>
       </c>
       <c r="D66">
         <v>1424238</v>
@@ -2671,18 +2618,21 @@
         <v>2</v>
       </c>
       <c r="H66" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="I66">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>3.5</v>
       </c>
-      <c r="B67" t="s">
-        <v>73</v>
-      </c>
-      <c r="C67">
-        <v>4</v>
+      <c r="B67">
+        <v>4</v>
+      </c>
+      <c r="C67" t="s">
+        <v>85</v>
       </c>
       <c r="D67">
         <v>1416068</v>
@@ -2697,18 +2647,21 @@
         <v>2</v>
       </c>
       <c r="H67" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="I67">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>3.5</v>
       </c>
-      <c r="B68" t="s">
-        <v>74</v>
-      </c>
-      <c r="C68">
-        <v>4</v>
+      <c r="B68">
+        <v>4</v>
+      </c>
+      <c r="C68" t="s">
+        <v>85</v>
       </c>
       <c r="D68">
         <v>420053</v>
@@ -2723,18 +2676,21 @@
         <v>2</v>
       </c>
       <c r="H68" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="I68">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>3.5</v>
       </c>
-      <c r="B69" t="s">
-        <v>75</v>
-      </c>
-      <c r="C69">
-        <v>4</v>
+      <c r="B69">
+        <v>4</v>
+      </c>
+      <c r="C69" t="s">
+        <v>85</v>
       </c>
       <c r="D69">
         <v>1517849</v>
@@ -2749,18 +2705,21 @@
         <v>2</v>
       </c>
       <c r="H69" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+      <c r="I69">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>2.5</v>
       </c>
-      <c r="B70" t="s">
-        <v>76</v>
-      </c>
-      <c r="C70">
-        <v>4</v>
+      <c r="B70">
+        <v>4</v>
+      </c>
+      <c r="C70" t="s">
+        <v>85</v>
       </c>
       <c r="D70">
         <v>396975</v>
@@ -2775,18 +2734,21 @@
         <v>2</v>
       </c>
       <c r="H70" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="I70">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1.5</v>
       </c>
-      <c r="B71" t="s">
-        <v>77</v>
-      </c>
-      <c r="C71">
-        <v>4</v>
+      <c r="B71">
+        <v>4</v>
+      </c>
+      <c r="C71" t="s">
+        <v>85</v>
       </c>
       <c r="D71">
         <v>684854</v>
@@ -2801,18 +2763,21 @@
         <v>2</v>
       </c>
       <c r="H71" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="I71">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>2.5</v>
       </c>
-      <c r="B72" t="s">
-        <v>78</v>
-      </c>
-      <c r="C72">
-        <v>4</v>
+      <c r="B72">
+        <v>4</v>
+      </c>
+      <c r="C72" t="s">
+        <v>85</v>
       </c>
       <c r="D72">
         <v>920159</v>
@@ -2827,18 +2792,21 @@
         <v>2</v>
       </c>
       <c r="H72" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="I72">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>2.5</v>
       </c>
-      <c r="B73" t="s">
-        <v>79</v>
-      </c>
-      <c r="C73">
-        <v>4</v>
+      <c r="B73">
+        <v>4</v>
+      </c>
+      <c r="C73" t="s">
+        <v>85</v>
       </c>
       <c r="D73">
         <v>2129334</v>
@@ -2853,18 +2821,21 @@
         <v>2</v>
       </c>
       <c r="H73" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="I73">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>3.5</v>
       </c>
-      <c r="B74" t="s">
-        <v>80</v>
-      </c>
-      <c r="C74">
-        <v>4</v>
+      <c r="B74">
+        <v>4</v>
+      </c>
+      <c r="C74" t="s">
+        <v>85</v>
       </c>
       <c r="D74">
         <v>342515</v>
@@ -2879,18 +2850,21 @@
         <v>2</v>
       </c>
       <c r="H74" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+      <c r="I74">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>3.5</v>
       </c>
-      <c r="B75" t="s">
-        <v>81</v>
-      </c>
-      <c r="C75">
-        <v>4</v>
+      <c r="B75">
+        <v>4</v>
+      </c>
+      <c r="C75" t="s">
+        <v>85</v>
       </c>
       <c r="D75">
         <v>280808</v>
@@ -2905,18 +2879,21 @@
         <v>2</v>
       </c>
       <c r="H75" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="I75">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>3.5</v>
       </c>
-      <c r="B76" t="s">
-        <v>82</v>
-      </c>
-      <c r="C76">
-        <v>4</v>
+      <c r="B76">
+        <v>4</v>
+      </c>
+      <c r="C76" t="s">
+        <v>85</v>
       </c>
       <c r="D76">
         <v>448892</v>
@@ -2931,18 +2908,21 @@
         <v>2</v>
       </c>
       <c r="H76" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="I76">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>2.5</v>
       </c>
-      <c r="B77" t="s">
-        <v>83</v>
-      </c>
-      <c r="C77">
-        <v>4</v>
+      <c r="B77">
+        <v>4</v>
+      </c>
+      <c r="C77" t="s">
+        <v>85</v>
       </c>
       <c r="D77">
         <v>479270</v>
@@ -2957,18 +2937,21 @@
         <v>2</v>
       </c>
       <c r="H77" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="I77">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1.5</v>
       </c>
-      <c r="B78" t="s">
-        <v>84</v>
-      </c>
-      <c r="C78">
-        <v>4</v>
+      <c r="B78">
+        <v>4</v>
+      </c>
+      <c r="C78" t="s">
+        <v>85</v>
       </c>
       <c r="D78">
         <v>513504</v>
@@ -2983,18 +2966,21 @@
         <v>2</v>
       </c>
       <c r="H78" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="I78">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>3.5</v>
       </c>
-      <c r="B79" t="s">
-        <v>85</v>
-      </c>
-      <c r="C79">
-        <v>4</v>
+      <c r="B79">
+        <v>4</v>
+      </c>
+      <c r="C79" t="s">
+        <v>85</v>
       </c>
       <c r="D79">
         <v>331606</v>
@@ -3009,18 +2995,21 @@
         <v>2</v>
       </c>
       <c r="H79" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="I79">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>3.5</v>
       </c>
-      <c r="B80" t="s">
-        <v>86</v>
-      </c>
-      <c r="C80">
-        <v>4</v>
+      <c r="B80">
+        <v>4</v>
+      </c>
+      <c r="C80" t="s">
+        <v>85</v>
       </c>
       <c r="D80">
         <v>613856</v>
@@ -3035,18 +3024,21 @@
         <v>2</v>
       </c>
       <c r="H80" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+      <c r="I80">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>3.5</v>
       </c>
-      <c r="B81" t="s">
-        <v>87</v>
-      </c>
-      <c r="C81">
-        <v>4</v>
+      <c r="B81">
+        <v>4</v>
+      </c>
+      <c r="C81" t="s">
+        <v>85</v>
       </c>
       <c r="D81">
         <v>997488</v>
@@ -3061,18 +3053,21 @@
         <v>2</v>
       </c>
       <c r="H81" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="I81">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1.5</v>
       </c>
-      <c r="B82" t="s">
-        <v>88</v>
-      </c>
-      <c r="C82">
-        <v>4</v>
+      <c r="B82">
+        <v>4</v>
+      </c>
+      <c r="C82" t="s">
+        <v>85</v>
       </c>
       <c r="D82">
         <v>625866</v>
@@ -3087,18 +3082,21 @@
         <v>2</v>
       </c>
       <c r="H82" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="I82">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>3.5</v>
       </c>
-      <c r="B83" t="s">
-        <v>89</v>
-      </c>
-      <c r="C83">
-        <v>4</v>
+      <c r="B83">
+        <v>4</v>
+      </c>
+      <c r="C83" t="s">
+        <v>85</v>
       </c>
       <c r="D83">
         <v>1138748</v>
@@ -3113,18 +3111,21 @@
         <v>2</v>
       </c>
       <c r="H83" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+      <c r="I83">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>2.5</v>
       </c>
-      <c r="B84" t="s">
-        <v>90</v>
-      </c>
-      <c r="C84">
-        <v>4</v>
+      <c r="B84">
+        <v>4</v>
+      </c>
+      <c r="C84" t="s">
+        <v>85</v>
       </c>
       <c r="D84">
         <v>253800</v>
@@ -3139,18 +3140,21 @@
         <v>2</v>
       </c>
       <c r="H84" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="I84">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>2.5</v>
       </c>
-      <c r="B85" t="s">
-        <v>91</v>
-      </c>
-      <c r="C85">
-        <v>4</v>
+      <c r="B85">
+        <v>4</v>
+      </c>
+      <c r="C85" t="s">
+        <v>85</v>
       </c>
       <c r="D85">
         <v>1005919</v>
@@ -3165,18 +3169,21 @@
         <v>2</v>
       </c>
       <c r="H85" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="I85">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>3.5</v>
       </c>
-      <c r="B86" t="s">
-        <v>92</v>
-      </c>
-      <c r="C86">
-        <v>4</v>
+      <c r="B86">
+        <v>4</v>
+      </c>
+      <c r="C86" t="s">
+        <v>85</v>
       </c>
       <c r="D86">
         <v>747451</v>
@@ -3191,18 +3198,21 @@
         <v>2</v>
       </c>
       <c r="H86" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="I86">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>3</v>
       </c>
-      <c r="B87" t="s">
-        <v>93</v>
-      </c>
-      <c r="C87">
-        <v>4</v>
+      <c r="B87">
+        <v>4</v>
+      </c>
+      <c r="C87" t="s">
+        <v>85</v>
       </c>
       <c r="D87">
         <v>1304015</v>
@@ -3217,18 +3227,21 @@
         <v>2</v>
       </c>
       <c r="H87" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="I87">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1.5</v>
       </c>
-      <c r="B88" t="s">
-        <v>94</v>
-      </c>
-      <c r="C88">
-        <v>4</v>
+      <c r="B88">
+        <v>4</v>
+      </c>
+      <c r="C88" t="s">
+        <v>85</v>
       </c>
       <c r="D88">
         <v>199739</v>
@@ -3243,18 +3256,21 @@
         <v>2</v>
       </c>
       <c r="H88" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+      <c r="I88">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1</v>
       </c>
-      <c r="B89" t="s">
-        <v>95</v>
-      </c>
-      <c r="C89">
-        <v>4</v>
+      <c r="B89">
+        <v>4</v>
+      </c>
+      <c r="C89" t="s">
+        <v>85</v>
       </c>
       <c r="D89">
         <v>648953</v>
@@ -3269,18 +3285,21 @@
         <v>2</v>
       </c>
       <c r="H89" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="I89">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1.5</v>
       </c>
-      <c r="B90" t="s">
-        <v>96</v>
-      </c>
-      <c r="C90">
-        <v>4</v>
+      <c r="B90">
+        <v>4</v>
+      </c>
+      <c r="C90" t="s">
+        <v>85</v>
       </c>
       <c r="D90">
         <v>502333</v>
@@ -3295,18 +3314,21 @@
         <v>2</v>
       </c>
       <c r="H90" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+      <c r="I90">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>2.5</v>
       </c>
-      <c r="B91" t="s">
-        <v>97</v>
-      </c>
-      <c r="C91">
-        <v>4</v>
+      <c r="B91">
+        <v>4</v>
+      </c>
+      <c r="C91" t="s">
+        <v>85</v>
       </c>
       <c r="D91">
         <v>603688</v>
@@ -3321,7 +3343,10 @@
         <v>2</v>
       </c>
       <c r="H91" t="s">
-        <v>128</v>
+        <v>38</v>
+      </c>
+      <c r="I91">
+        <v>2150000</v>
       </c>
     </row>
   </sheetData>
